--- a/biology/Zoologie/Aphelocoma/Aphelocoma.xlsx
+++ b/biology/Zoologie/Aphelocoma/Aphelocoma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Aphelocoma regroupe des passereaux appartenant à la famille des Corvidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon la classification de référence du Congrès ornithologique international  (version 2.9, 2011)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon la classification de référence du Congrès ornithologique international  (version 2.9, 2011) :
 Aphelocoma wollweberi – Geai du Mexique ;
 Aphelocoma ultramarina – Geai des volcans ;
 Aphelocoma unicolor – Geai unicolore ;
@@ -548,7 +562,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le régime alimentaire de ces geais est principalement composé de glands et de pignons de pin. Ils consomment également des céréales, des baies, des insectes, des oisillons, des œufs et des petits reptiles.  
 </t>
